--- a/data/recipients.xlsx
+++ b/data/recipients.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Phone</t>
   </si>
@@ -28,10 +28,7 @@
     <t>Message</t>
   </si>
   <si>
-    <t>‪6281807408933‬</t>
-  </si>
-  <si>
-    <t>Jeanly</t>
+    <t>Alodia</t>
   </si>
   <si>
     <t>Kak</t>
@@ -44,12 +41,6 @@
   </si>
   <si>
     <t>Pak</t>
-  </si>
-  <si>
-    <t>6281808903150</t>
-  </si>
-  <si>
-    <t>Aditya</t>
   </si>
 </sst>
 </file>
@@ -154,8 +145,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:B4" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:B4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:B3" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
+  <autoFilter ref="A1:B3"/>
   <tableColumns count="2">
     <tableColumn name="Phone" id="1"/>
     <tableColumn name="Name" id="2"/>
@@ -452,7 +443,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -464,7 +455,7 @@
     <col min="4" max="4" style="6" width="30.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,41 +469,29 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="4">
+        <v>6287880795902</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/recipients.xlsx
+++ b/data/recipients.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Phone</t>
   </si>
@@ -25,22 +25,31 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Message</t>
-  </si>
-  <si>
-    <t>Alodia</t>
+    <t>Institution</t>
+  </si>
+  <si>
+    <t>‪6281807408933‬</t>
+  </si>
+  <si>
+    <t>Jeanly</t>
   </si>
   <si>
     <t>Kak</t>
   </si>
   <si>
+    <t>ICCT</t>
+  </si>
+  <si>
+    <t>Aditya</t>
+  </si>
+  <si>
+    <t>Pak</t>
+  </si>
+  <si>
     <t>6282125813694</t>
   </si>
   <si>
     <t>Fabio</t>
-  </si>
-  <si>
-    <t>Pak</t>
   </si>
 </sst>
 </file>
@@ -110,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -120,6 +129,12 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -145,8 +160,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:B3" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:B3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:B4" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
+  <autoFilter ref="A1:B4"/>
   <tableColumns count="2">
     <tableColumn name="Phone" id="1"/>
     <tableColumn name="Name" id="2"/>
@@ -443,16 +458,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="24.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="28.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="30.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="24.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="28.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="30.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -470,28 +485,46 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="4">
-        <v>6287880795902</v>
+      <c r="A2" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="5">
+        <v>6281808903150</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
